--- a/Assets/Game/Content/Data/CharacterTable.xlsx
+++ b/Assets/Game/Content/Data/CharacterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FCD92-C270-428C-BCD9-9B29DA9484AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A55C43-25D4-4DD5-A290-4B2C50426D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Character_Defalt_Desc</t>
   </si>
   <si>
-    <t>[false,false,false,false]</t>
-  </si>
-  <si>
     <t>Fire</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>Character_Scientist_Desc</t>
-  </si>
-  <si>
-    <t>[true,true, false, false]</t>
   </si>
   <si>
     <t>[8,8,0,0]</t>
@@ -192,6 +186,14 @@
   </si>
   <si>
     <t>[E100,E100,E100,E101,E101,E101,E102,E103]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[true,true, false, false]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[false,false,false,false]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -648,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
       <c r="G5">
@@ -657,19 +659,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -678,24 +680,24 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -704,24 +706,24 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -730,24 +732,24 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -756,11 +758,8 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="2"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
